--- a/input/default-emissions-data/Diesel_transport_S_trend.xlsx
+++ b/input/default-emissions-data/Diesel_transport_S_trend.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Documents/Information &amp; Documents/CEDS_Project/CEDS/input/default-emissions-data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E16FB8-5C5D-B447-AC35-5C9CD7F044C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="1680" windowWidth="17020" windowHeight="18480" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="460" windowWidth="23920" windowHeight="15080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ppm" sheetId="7" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="diagnostic" sheetId="10" r:id="rId3"/>
     <sheet name="notes" sheetId="9" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1307,11 +1313,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1344,6 +1350,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1403,7 +1417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
@@ -1415,6 +1429,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1424,14 +1439,22 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="XLConnect.Boolean" xfId="8"/>
-    <cellStyle name="XLConnect.DateTime" xfId="9"/>
-    <cellStyle name="XLConnect.Header" xfId="5"/>
-    <cellStyle name="XLConnect.Numeric" xfId="7"/>
-    <cellStyle name="XLConnect.String" xfId="6"/>
+    <cellStyle name="XLConnect.Boolean" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="XLConnect.DateTime" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="XLConnect.Header" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="XLConnect.Numeric" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="XLConnect.String" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1756,17 +1779,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BD137" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AW28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD182" sqref="BD182"/>
+      <selection pane="bottomRight" activeCell="AZ50" sqref="AZ50:BC54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.83203125" style="3" collapsed="1"/>
@@ -1777,7 +1800,7 @@
     <col min="57" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="4" customFormat="1">
+    <row r="1" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1972,7 @@
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -2033,7 +2056,7 @@
       <c r="BG2"/>
       <c r="BH2"/>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -2109,7 +2132,7 @@
       <c r="BG3"/>
       <c r="BH3"/>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -2203,7 +2226,7 @@
       <c r="BG4"/>
       <c r="BH4"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -2277,7 +2300,7 @@
       <c r="BG5"/>
       <c r="BH5"/>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -2355,7 +2378,7 @@
       <c r="BG6"/>
       <c r="BH6"/>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -2433,7 +2456,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -2511,7 +2534,7 @@
       <c r="BG8"/>
       <c r="BH8"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -2589,7 +2612,7 @@
       <c r="BG9"/>
       <c r="BH9"/>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -2667,7 +2690,7 @@
       <c r="BG10"/>
       <c r="BH10"/>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -2749,7 +2772,7 @@
       <c r="BG11"/>
       <c r="BH11"/>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -2827,7 +2850,7 @@
       <c r="BG12"/>
       <c r="BH12"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -2905,7 +2928,7 @@
       <c r="BG13"/>
       <c r="BH13"/>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -2983,7 +3006,7 @@
       <c r="BG14"/>
       <c r="BH14"/>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -3061,7 +3084,7 @@
       <c r="BG15"/>
       <c r="BH15"/>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -3139,7 +3162,7 @@
       <c r="BG16"/>
       <c r="BH16"/>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -3233,7 +3256,7 @@
       <c r="BG17"/>
       <c r="BH17"/>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -3311,7 +3334,7 @@
       <c r="BG18"/>
       <c r="BH18"/>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -3405,7 +3428,7 @@
       <c r="BG19"/>
       <c r="BH19"/>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -3487,7 +3510,7 @@
       <c r="BG20"/>
       <c r="BH20"/>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -3565,7 +3588,7 @@
       <c r="BG21"/>
       <c r="BH21"/>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -3643,7 +3666,7 @@
       <c r="BG22"/>
       <c r="BH22"/>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -3737,7 +3760,7 @@
       <c r="BG23"/>
       <c r="BH23"/>
     </row>
-    <row r="24" spans="1:60">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -3819,7 +3842,7 @@
       <c r="BG24"/>
       <c r="BH24"/>
     </row>
-    <row r="25" spans="1:60">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -3897,7 +3920,7 @@
       <c r="BG25"/>
       <c r="BH25"/>
     </row>
-    <row r="26" spans="1:60">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -3981,7 +4004,7 @@
       <c r="BG26"/>
       <c r="BH26"/>
     </row>
-    <row r="27" spans="1:60">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -4057,7 +4080,7 @@
       <c r="BG27"/>
       <c r="BH27"/>
     </row>
-    <row r="28" spans="1:60">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -4135,7 +4158,7 @@
       <c r="BG28"/>
       <c r="BH28"/>
     </row>
-    <row r="29" spans="1:60">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -4213,7 +4236,7 @@
       <c r="BG29"/>
       <c r="BH29"/>
     </row>
-    <row r="30" spans="1:60">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -4289,7 +4312,7 @@
       <c r="BG30"/>
       <c r="BH30"/>
     </row>
-    <row r="31" spans="1:60">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -4365,7 +4388,7 @@
       <c r="BG31"/>
       <c r="BH31"/>
     </row>
-    <row r="32" spans="1:60">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -4443,7 +4466,7 @@
       <c r="BG32"/>
       <c r="BH32"/>
     </row>
-    <row r="33" spans="1:60">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -4521,7 +4544,7 @@
       <c r="BG33"/>
       <c r="BH33"/>
     </row>
-    <row r="34" spans="1:60">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -4627,7 +4650,7 @@
       <c r="BG34"/>
       <c r="BH34"/>
     </row>
-    <row r="35" spans="1:60">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -4721,7 +4744,7 @@
       <c r="BG35"/>
       <c r="BH35"/>
     </row>
-    <row r="36" spans="1:60">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -4803,7 +4826,7 @@
       <c r="BG36"/>
       <c r="BH36"/>
     </row>
-    <row r="37" spans="1:60">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
@@ -4877,7 +4900,7 @@
       <c r="BG37"/>
       <c r="BH37"/>
     </row>
-    <row r="38" spans="1:60">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -4961,7 +4984,7 @@
       <c r="BG38"/>
       <c r="BH38"/>
     </row>
-    <row r="39" spans="1:60">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -5053,7 +5076,7 @@
       <c r="BG39"/>
       <c r="BH39"/>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -5131,7 +5154,7 @@
       <c r="BG40"/>
       <c r="BH40"/>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5232,7 @@
       <c r="BG41"/>
       <c r="BH41"/>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -5283,7 +5306,7 @@
       <c r="BG42"/>
       <c r="BH42"/>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5367,7 +5390,7 @@
       <c r="BG43"/>
       <c r="BH43"/>
     </row>
-    <row r="44" spans="1:60">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -5445,7 +5468,7 @@
       <c r="BG44"/>
       <c r="BH44"/>
     </row>
-    <row r="45" spans="1:60">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -5521,7 +5544,7 @@
       <c r="BG45"/>
       <c r="BH45"/>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -5601,7 +5624,7 @@
       <c r="BG46"/>
       <c r="BH46"/>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -5689,7 +5712,7 @@
       <c r="BG47"/>
       <c r="BH47"/>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -5771,7 +5794,7 @@
       <c r="BG48"/>
       <c r="BH48"/>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -5853,7 +5876,7 @@
       <c r="BG49"/>
       <c r="BH49"/>
     </row>
-    <row r="50" spans="1:60">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -5931,17 +5954,25 @@
         <v>50</v>
       </c>
       <c r="AY50" s="5"/>
-      <c r="AZ50" s="6"/>
-      <c r="BA50" s="5"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="5"/>
+      <c r="AZ50" s="6">
+        <v>10</v>
+      </c>
+      <c r="BA50" s="6">
+        <v>10</v>
+      </c>
+      <c r="BB50" s="6">
+        <v>10</v>
+      </c>
+      <c r="BC50" s="6">
+        <v>10</v>
+      </c>
       <c r="BD50" s="7"/>
       <c r="BE50"/>
       <c r="BF50"/>
       <c r="BG50"/>
       <c r="BH50"/>
     </row>
-    <row r="51" spans="1:60">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -6027,7 +6058,7 @@
       <c r="BG51"/>
       <c r="BH51"/>
     </row>
-    <row r="52" spans="1:60">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -6113,7 +6144,7 @@
       <c r="BG52"/>
       <c r="BH52"/>
     </row>
-    <row r="53" spans="1:60">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -6201,7 +6232,7 @@
       <c r="BG53"/>
       <c r="BH53"/>
     </row>
-    <row r="54" spans="1:60">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -6282,14 +6313,16 @@
       <c r="AZ54" s="5"/>
       <c r="BA54" s="5"/>
       <c r="BB54" s="5"/>
-      <c r="BC54" s="5"/>
+      <c r="BC54" s="6">
+        <v>10</v>
+      </c>
       <c r="BD54" s="7"/>
       <c r="BE54"/>
       <c r="BF54"/>
       <c r="BG54"/>
       <c r="BH54"/>
     </row>
-    <row r="55" spans="1:60">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -6377,7 +6410,7 @@
       <c r="BG55"/>
       <c r="BH55"/>
     </row>
-    <row r="56" spans="1:60">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -6469,7 +6502,7 @@
       <c r="BG56"/>
       <c r="BH56"/>
     </row>
-    <row r="57" spans="1:60">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -6545,7 +6578,7 @@
       <c r="BG57"/>
       <c r="BH57"/>
     </row>
-    <row r="58" spans="1:60">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -6633,7 +6666,7 @@
       <c r="BG58"/>
       <c r="BH58"/>
     </row>
-    <row r="59" spans="1:60">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -6715,7 +6748,7 @@
       <c r="BG59"/>
       <c r="BH59"/>
     </row>
-    <row r="60" spans="1:60">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -6797,7 +6830,7 @@
       <c r="BG60"/>
       <c r="BH60"/>
     </row>
-    <row r="61" spans="1:60">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -6879,7 +6912,7 @@
       <c r="BG61"/>
       <c r="BH61"/>
     </row>
-    <row r="62" spans="1:60">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -6967,7 +7000,7 @@
       <c r="BG62"/>
       <c r="BH62"/>
     </row>
-    <row r="63" spans="1:60">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -7057,7 +7090,7 @@
       <c r="BG63"/>
       <c r="BH63"/>
     </row>
-    <row r="64" spans="1:60">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
@@ -7145,7 +7178,7 @@
       <c r="BG64"/>
       <c r="BH64"/>
     </row>
-    <row r="65" spans="1:60">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -7233,7 +7266,7 @@
       <c r="BG65"/>
       <c r="BH65"/>
     </row>
-    <row r="66" spans="1:60">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
@@ -7309,7 +7342,7 @@
       <c r="BG66"/>
       <c r="BH66"/>
     </row>
-    <row r="67" spans="1:60">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
@@ -7397,7 +7430,7 @@
       <c r="BG67"/>
       <c r="BH67"/>
     </row>
-    <row r="68" spans="1:60">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
@@ -7485,7 +7518,7 @@
       <c r="BG68"/>
       <c r="BH68"/>
     </row>
-    <row r="69" spans="1:60">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -7563,7 +7596,7 @@
       <c r="BG69"/>
       <c r="BH69"/>
     </row>
-    <row r="70" spans="1:60">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
@@ -7651,7 +7684,7 @@
       <c r="BG70"/>
       <c r="BH70"/>
     </row>
-    <row r="71" spans="1:60">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -7735,7 +7768,7 @@
       <c r="BG71"/>
       <c r="BH71"/>
     </row>
-    <row r="72" spans="1:60">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
@@ -7829,7 +7862,7 @@
       <c r="BG72"/>
       <c r="BH72"/>
     </row>
-    <row r="73" spans="1:60">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -7909,7 +7942,7 @@
       <c r="BG73"/>
       <c r="BH73"/>
     </row>
-    <row r="74" spans="1:60">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
@@ -8011,7 +8044,7 @@
       <c r="BG74"/>
       <c r="BH74"/>
     </row>
-    <row r="75" spans="1:60">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -8095,7 +8128,7 @@
       <c r="BG75"/>
       <c r="BH75"/>
     </row>
-    <row r="76" spans="1:60">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>53</v>
       </c>
@@ -8195,7 +8228,7 @@
       <c r="BG76"/>
       <c r="BH76"/>
     </row>
-    <row r="77" spans="1:60">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
@@ -8279,7 +8312,7 @@
       <c r="BG77"/>
       <c r="BH77"/>
     </row>
-    <row r="78" spans="1:60">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
@@ -8381,7 +8414,7 @@
       <c r="BG78"/>
       <c r="BH78"/>
     </row>
-    <row r="79" spans="1:60">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -8461,7 +8494,7 @@
       <c r="BG79"/>
       <c r="BH79"/>
     </row>
-    <row r="80" spans="1:60">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
@@ -8563,7 +8596,7 @@
       <c r="BG80"/>
       <c r="BH80"/>
     </row>
-    <row r="81" spans="1:60">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>53</v>
       </c>
@@ -8663,7 +8696,7 @@
       <c r="BG81"/>
       <c r="BH81"/>
     </row>
-    <row r="82" spans="1:60">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>54</v>
       </c>
@@ -8741,7 +8774,7 @@
       <c r="BG82"/>
       <c r="BH82"/>
     </row>
-    <row r="83" spans="1:60">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>54</v>
       </c>
@@ -8827,7 +8860,7 @@
       <c r="BG83"/>
       <c r="BH83"/>
     </row>
-    <row r="84" spans="1:60">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>54</v>
       </c>
@@ -8911,7 +8944,7 @@
       <c r="BG84"/>
       <c r="BH84"/>
     </row>
-    <row r="85" spans="1:60">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
@@ -9013,7 +9046,7 @@
       <c r="BG85"/>
       <c r="BH85"/>
     </row>
-    <row r="86" spans="1:60">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>54</v>
       </c>
@@ -9093,7 +9126,7 @@
       <c r="BG86"/>
       <c r="BH86"/>
     </row>
-    <row r="87" spans="1:60">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>54</v>
       </c>
@@ -9181,7 +9214,7 @@
       <c r="BG87"/>
       <c r="BH87"/>
     </row>
-    <row r="88" spans="1:60">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
@@ -9259,7 +9292,7 @@
       <c r="BG88"/>
       <c r="BH88"/>
     </row>
-    <row r="89" spans="1:60">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
@@ -9361,7 +9394,7 @@
       <c r="BG89"/>
       <c r="BH89"/>
     </row>
-    <row r="90" spans="1:60">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>54</v>
       </c>
@@ -9463,7 +9496,7 @@
       <c r="BG90"/>
       <c r="BH90"/>
     </row>
-    <row r="91" spans="1:60">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>54</v>
       </c>
@@ -9547,7 +9580,7 @@
       <c r="BG91"/>
       <c r="BH91"/>
     </row>
-    <row r="92" spans="1:60">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>54</v>
       </c>
@@ -9651,7 +9684,7 @@
       <c r="BG92"/>
       <c r="BH92"/>
     </row>
-    <row r="93" spans="1:60">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>54</v>
       </c>
@@ -9735,7 +9768,7 @@
       <c r="BG93"/>
       <c r="BH93"/>
     </row>
-    <row r="94" spans="1:60">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>54</v>
       </c>
@@ -9823,7 +9856,7 @@
       <c r="BG94"/>
       <c r="BH94"/>
     </row>
-    <row r="95" spans="1:60">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>54</v>
       </c>
@@ -9905,7 +9938,7 @@
       <c r="BG95"/>
       <c r="BH95"/>
     </row>
-    <row r="96" spans="1:60">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>54</v>
       </c>
@@ -9987,7 +10020,7 @@
       <c r="BG96"/>
       <c r="BH96"/>
     </row>
-    <row r="97" spans="1:60">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>55</v>
       </c>
@@ -10073,7 +10106,7 @@
       <c r="BG97"/>
       <c r="BH97"/>
     </row>
-    <row r="98" spans="1:60">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>55</v>
       </c>
@@ -10147,7 +10180,7 @@
       <c r="BG98"/>
       <c r="BH98"/>
     </row>
-    <row r="99" spans="1:60">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>55</v>
       </c>
@@ -10227,7 +10260,7 @@
       <c r="BG99"/>
       <c r="BH99"/>
     </row>
-    <row r="100" spans="1:60">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>55</v>
       </c>
@@ -10323,7 +10356,7 @@
       <c r="BG100"/>
       <c r="BH100"/>
     </row>
-    <row r="101" spans="1:60">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>55</v>
       </c>
@@ -10399,7 +10432,7 @@
       <c r="BG101"/>
       <c r="BH101"/>
     </row>
-    <row r="102" spans="1:60">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>55</v>
       </c>
@@ -10483,7 +10516,7 @@
       <c r="BG102"/>
       <c r="BH102"/>
     </row>
-    <row r="103" spans="1:60">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
@@ -10567,7 +10600,7 @@
       <c r="BG103"/>
       <c r="BH103"/>
     </row>
-    <row r="104" spans="1:60">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -10649,7 +10682,7 @@
       <c r="BG104"/>
       <c r="BH104"/>
     </row>
-    <row r="105" spans="1:60">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -10725,7 +10758,7 @@
       <c r="BG105"/>
       <c r="BH105"/>
     </row>
-    <row r="106" spans="1:60">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -10807,7 +10840,7 @@
       <c r="BG106"/>
       <c r="BH106"/>
     </row>
-    <row r="107" spans="1:60">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -10913,7 +10946,7 @@
       <c r="BG107"/>
       <c r="BH107"/>
     </row>
-    <row r="108" spans="1:60">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>55</v>
       </c>
@@ -10991,7 +11024,7 @@
       <c r="BG108"/>
       <c r="BH108"/>
     </row>
-    <row r="109" spans="1:60">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>55</v>
       </c>
@@ -11065,7 +11098,7 @@
       <c r="BG109"/>
       <c r="BH109"/>
     </row>
-    <row r="110" spans="1:60">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>55</v>
       </c>
@@ -11145,7 +11178,7 @@
       <c r="BG110"/>
       <c r="BH110"/>
     </row>
-    <row r="111" spans="1:60">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>55</v>
       </c>
@@ -11231,7 +11264,7 @@
       <c r="BG111"/>
       <c r="BH111"/>
     </row>
-    <row r="112" spans="1:60">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>55</v>
       </c>
@@ -11305,7 +11338,7 @@
       <c r="BG112"/>
       <c r="BH112"/>
     </row>
-    <row r="113" spans="1:60">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>55</v>
       </c>
@@ -11379,7 +11412,7 @@
       <c r="BG113"/>
       <c r="BH113"/>
     </row>
-    <row r="114" spans="1:60">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -11459,7 +11492,7 @@
       <c r="BG114"/>
       <c r="BH114"/>
     </row>
-    <row r="115" spans="1:60">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>55</v>
       </c>
@@ -11539,7 +11572,7 @@
       <c r="BG115"/>
       <c r="BH115"/>
     </row>
-    <row r="116" spans="1:60">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>55</v>
       </c>
@@ -11613,7 +11646,7 @@
       <c r="BG116"/>
       <c r="BH116"/>
     </row>
-    <row r="117" spans="1:60">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>55</v>
       </c>
@@ -11689,7 +11722,7 @@
       <c r="BG117"/>
       <c r="BH117"/>
     </row>
-    <row r="118" spans="1:60">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>55</v>
       </c>
@@ -11795,7 +11828,7 @@
       <c r="BG118"/>
       <c r="BH118"/>
     </row>
-    <row r="119" spans="1:60">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>55</v>
       </c>
@@ -11879,7 +11912,7 @@
       <c r="BG119"/>
       <c r="BH119"/>
     </row>
-    <row r="120" spans="1:60">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>55</v>
       </c>
@@ -11961,7 +11994,7 @@
       <c r="BG120"/>
       <c r="BH120"/>
     </row>
-    <row r="121" spans="1:60">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>55</v>
       </c>
@@ -12043,7 +12076,7 @@
       <c r="BG121"/>
       <c r="BH121"/>
     </row>
-    <row r="122" spans="1:60">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>55</v>
       </c>
@@ -12149,7 +12182,7 @@
       <c r="BG122"/>
       <c r="BH122"/>
     </row>
-    <row r="123" spans="1:60">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>56</v>
       </c>
@@ -12225,7 +12258,7 @@
       <c r="BG123"/>
       <c r="BH123"/>
     </row>
-    <row r="124" spans="1:60">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>56</v>
       </c>
@@ -12303,7 +12336,7 @@
       <c r="BG124"/>
       <c r="BH124"/>
     </row>
-    <row r="125" spans="1:60">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>56</v>
       </c>
@@ -12377,7 +12410,7 @@
       <c r="BG125"/>
       <c r="BH125"/>
     </row>
-    <row r="126" spans="1:60">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>56</v>
       </c>
@@ -12455,7 +12488,7 @@
       <c r="BG126"/>
       <c r="BH126"/>
     </row>
-    <row r="127" spans="1:60">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>56</v>
       </c>
@@ -12535,7 +12568,7 @@
       <c r="BG127"/>
       <c r="BH127"/>
     </row>
-    <row r="128" spans="1:60">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>56</v>
       </c>
@@ -12613,7 +12646,7 @@
       <c r="BG128"/>
       <c r="BH128"/>
     </row>
-    <row r="129" spans="1:60">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>56</v>
       </c>
@@ -12695,7 +12728,7 @@
       <c r="BG129"/>
       <c r="BH129"/>
     </row>
-    <row r="130" spans="1:60">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>56</v>
       </c>
@@ -12777,7 +12810,7 @@
       <c r="BG130"/>
       <c r="BH130"/>
     </row>
-    <row r="131" spans="1:60">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>56</v>
       </c>
@@ -12855,7 +12888,7 @@
       <c r="BG131"/>
       <c r="BH131"/>
     </row>
-    <row r="132" spans="1:60">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
@@ -12933,7 +12966,7 @@
       <c r="BG132"/>
       <c r="BH132"/>
     </row>
-    <row r="133" spans="1:60">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>56</v>
       </c>
@@ -13011,7 +13044,7 @@
       <c r="BG133"/>
       <c r="BH133"/>
     </row>
-    <row r="134" spans="1:60">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>56</v>
       </c>
@@ -13085,7 +13118,7 @@
       <c r="BG134"/>
       <c r="BH134"/>
     </row>
-    <row r="135" spans="1:60">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
@@ -13175,7 +13208,7 @@
       <c r="BG135"/>
       <c r="BH135"/>
     </row>
-    <row r="136" spans="1:60">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>57</v>
       </c>
@@ -13281,7 +13314,7 @@
       <c r="BG136"/>
       <c r="BH136"/>
     </row>
-    <row r="137" spans="1:60">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>57</v>
       </c>
@@ -13367,7 +13400,7 @@
       <c r="BG137"/>
       <c r="BH137"/>
     </row>
-    <row r="138" spans="1:60">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>57</v>
       </c>
@@ -13447,7 +13480,7 @@
       <c r="BG138"/>
       <c r="BH138"/>
     </row>
-    <row r="139" spans="1:60">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>57</v>
       </c>
@@ -13555,7 +13588,7 @@
       <c r="BG139"/>
       <c r="BH139"/>
     </row>
-    <row r="140" spans="1:60">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>57</v>
       </c>
@@ -13699,7 +13732,7 @@
       <c r="BG140"/>
       <c r="BH140"/>
     </row>
-    <row r="141" spans="1:60">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>57</v>
       </c>
@@ -13807,7 +13840,7 @@
       <c r="BG141"/>
       <c r="BH141"/>
     </row>
-    <row r="142" spans="1:60">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>58</v>
       </c>
@@ -13915,7 +13948,7 @@
       <c r="BG142"/>
       <c r="BH142"/>
     </row>
-    <row r="143" spans="1:60">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>58</v>
       </c>
@@ -14023,7 +14056,7 @@
       <c r="BG143"/>
       <c r="BH143"/>
     </row>
-    <row r="144" spans="1:60">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>58</v>
       </c>
@@ -14101,7 +14134,7 @@
       <c r="BG144"/>
       <c r="BH144"/>
     </row>
-    <row r="145" spans="1:60">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>58</v>
       </c>
@@ -14207,7 +14240,7 @@
       <c r="BG145"/>
       <c r="BH145"/>
     </row>
-    <row r="146" spans="1:60">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>58</v>
       </c>
@@ -14307,7 +14340,7 @@
       <c r="BG146"/>
       <c r="BH146"/>
     </row>
-    <row r="147" spans="1:60">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>58</v>
       </c>
@@ -14415,7 +14448,7 @@
       <c r="BG147"/>
       <c r="BH147"/>
     </row>
-    <row r="148" spans="1:60">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -14521,7 +14554,7 @@
       <c r="BG148"/>
       <c r="BH148"/>
     </row>
-    <row r="149" spans="1:60">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -14629,7 +14662,7 @@
       <c r="BG149"/>
       <c r="BH149"/>
     </row>
-    <row r="150" spans="1:60">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -14735,7 +14768,7 @@
       <c r="BG150"/>
       <c r="BH150"/>
     </row>
-    <row r="151" spans="1:60">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -14843,7 +14876,7 @@
       <c r="BG151"/>
       <c r="BH151"/>
     </row>
-    <row r="152" spans="1:60">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>58</v>
       </c>
@@ -14949,7 +14982,7 @@
       <c r="BG152"/>
       <c r="BH152"/>
     </row>
-    <row r="153" spans="1:60">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>58</v>
       </c>
@@ -15055,7 +15088,7 @@
       <c r="BG153"/>
       <c r="BH153"/>
     </row>
-    <row r="154" spans="1:60">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>58</v>
       </c>
@@ -15161,7 +15194,7 @@
       <c r="BG154"/>
       <c r="BH154"/>
     </row>
-    <row r="155" spans="1:60">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>58</v>
       </c>
@@ -15269,7 +15302,7 @@
       <c r="BG155"/>
       <c r="BH155"/>
     </row>
-    <row r="156" spans="1:60">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>58</v>
       </c>
@@ -15375,7 +15408,7 @@
       <c r="BG156"/>
       <c r="BH156"/>
     </row>
-    <row r="157" spans="1:60">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>58</v>
       </c>
@@ -15481,7 +15514,7 @@
       <c r="BG157"/>
       <c r="BH157"/>
     </row>
-    <row r="158" spans="1:60">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>58</v>
       </c>
@@ -15587,7 +15620,7 @@
       <c r="BG158"/>
       <c r="BH158"/>
     </row>
-    <row r="159" spans="1:60">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>58</v>
       </c>
@@ -15697,7 +15730,7 @@
       <c r="BG159"/>
       <c r="BH159"/>
     </row>
-    <row r="160" spans="1:60">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>58</v>
       </c>
@@ -15805,7 +15838,7 @@
       <c r="BG160"/>
       <c r="BH160"/>
     </row>
-    <row r="161" spans="1:60">
+    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>58</v>
       </c>
@@ -15913,7 +15946,7 @@
       <c r="BG161"/>
       <c r="BH161"/>
     </row>
-    <row r="162" spans="1:60">
+    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>58</v>
       </c>
@@ -16013,7 +16046,7 @@
       <c r="BG162"/>
       <c r="BH162"/>
     </row>
-    <row r="163" spans="1:60">
+    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>58</v>
       </c>
@@ -16121,7 +16154,7 @@
       <c r="BG163"/>
       <c r="BH163"/>
     </row>
-    <row r="164" spans="1:60">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>58</v>
       </c>
@@ -16199,7 +16232,7 @@
       <c r="BG164"/>
       <c r="BH164"/>
     </row>
-    <row r="165" spans="1:60">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>58</v>
       </c>
@@ -16307,7 +16340,7 @@
       <c r="BG165"/>
       <c r="BH165"/>
     </row>
-    <row r="166" spans="1:60">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
@@ -16415,7 +16448,7 @@
       <c r="BG166"/>
       <c r="BH166"/>
     </row>
-    <row r="167" spans="1:60">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>58</v>
       </c>
@@ -16519,7 +16552,7 @@
       <c r="BG167"/>
       <c r="BH167"/>
     </row>
-    <row r="168" spans="1:60">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>58</v>
       </c>
@@ -16603,7 +16636,7 @@
       <c r="BG168"/>
       <c r="BH168"/>
     </row>
-    <row r="169" spans="1:60">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>58</v>
       </c>
@@ -16711,7 +16744,7 @@
       <c r="BG169"/>
       <c r="BH169"/>
     </row>
-    <row r="170" spans="1:60">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -16768,7 +16801,7 @@
       <c r="BB170"/>
       <c r="BC170"/>
     </row>
-    <row r="171" spans="1:60">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -16825,7 +16858,7 @@
       <c r="BB171"/>
       <c r="BC171"/>
     </row>
-    <row r="172" spans="1:60">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -16882,7 +16915,7 @@
       <c r="BB172"/>
       <c r="BC172"/>
     </row>
-    <row r="173" spans="1:60">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -16939,7 +16972,7 @@
       <c r="BB173"/>
       <c r="BC173"/>
     </row>
-    <row r="174" spans="1:60">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -16996,7 +17029,7 @@
       <c r="BB174"/>
       <c r="BC174"/>
     </row>
-    <row r="175" spans="1:60">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -17053,7 +17086,7 @@
       <c r="BB175"/>
       <c r="BC175"/>
     </row>
-    <row r="176" spans="1:60">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -17110,7 +17143,7 @@
       <c r="BB176"/>
       <c r="BC176"/>
     </row>
-    <row r="177" spans="1:55">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -17179,17 +17212,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BH177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BA21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AV30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="BC54" sqref="BC54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.83203125" style="3" collapsed="1"/>
@@ -17200,7 +17233,7 @@
     <col min="57" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="4" customFormat="1">
+    <row r="1" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17372,7 +17405,7 @@
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -17456,7 +17489,7 @@
       <c r="BG2"/>
       <c r="BH2"/>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>51</v>
       </c>
@@ -17532,7 +17565,7 @@
       <c r="BG3"/>
       <c r="BH3"/>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
@@ -17626,7 +17659,7 @@
       <c r="BG4"/>
       <c r="BH4"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -17700,7 +17733,7 @@
       <c r="BG5"/>
       <c r="BH5"/>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -17778,7 +17811,7 @@
       <c r="BG6"/>
       <c r="BH6"/>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -17856,7 +17889,7 @@
       <c r="BG7"/>
       <c r="BH7"/>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -17934,7 +17967,7 @@
       <c r="BG8"/>
       <c r="BH8"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -18012,7 +18045,7 @@
       <c r="BG9"/>
       <c r="BH9"/>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -18090,7 +18123,7 @@
       <c r="BG10"/>
       <c r="BH10"/>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -18172,7 +18205,7 @@
       <c r="BG11"/>
       <c r="BH11"/>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>51</v>
       </c>
@@ -18250,7 +18283,7 @@
       <c r="BG12"/>
       <c r="BH12"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>51</v>
       </c>
@@ -18328,7 +18361,7 @@
       <c r="BG13"/>
       <c r="BH13"/>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>51</v>
       </c>
@@ -18406,7 +18439,7 @@
       <c r="BG14"/>
       <c r="BH14"/>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -18484,7 +18517,7 @@
       <c r="BG15"/>
       <c r="BH15"/>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -18562,7 +18595,7 @@
       <c r="BG16"/>
       <c r="BH16"/>
     </row>
-    <row r="17" spans="1:60">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -18656,7 +18689,7 @@
       <c r="BG17"/>
       <c r="BH17"/>
     </row>
-    <row r="18" spans="1:60">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>51</v>
       </c>
@@ -18734,7 +18767,7 @@
       <c r="BG18"/>
       <c r="BH18"/>
     </row>
-    <row r="19" spans="1:60">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>51</v>
       </c>
@@ -18828,7 +18861,7 @@
       <c r="BG19"/>
       <c r="BH19"/>
     </row>
-    <row r="20" spans="1:60">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -18910,7 +18943,7 @@
       <c r="BG20"/>
       <c r="BH20"/>
     </row>
-    <row r="21" spans="1:60">
+    <row r="21" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
@@ -18988,7 +19021,7 @@
       <c r="BG21"/>
       <c r="BH21"/>
     </row>
-    <row r="22" spans="1:60">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -19066,7 +19099,7 @@
       <c r="BG22"/>
       <c r="BH22"/>
     </row>
-    <row r="23" spans="1:60">
+    <row r="23" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -19160,7 +19193,7 @@
       <c r="BG23"/>
       <c r="BH23"/>
     </row>
-    <row r="24" spans="1:60">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -19242,7 +19275,7 @@
       <c r="BG24"/>
       <c r="BH24"/>
     </row>
-    <row r="25" spans="1:60">
+    <row r="25" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -19320,7 +19353,7 @@
       <c r="BG25"/>
       <c r="BH25"/>
     </row>
-    <row r="26" spans="1:60">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -19404,7 +19437,7 @@
       <c r="BG26"/>
       <c r="BH26"/>
     </row>
-    <row r="27" spans="1:60">
+    <row r="27" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>51</v>
       </c>
@@ -19480,7 +19513,7 @@
       <c r="BG27"/>
       <c r="BH27"/>
     </row>
-    <row r="28" spans="1:60">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -19558,7 +19591,7 @@
       <c r="BG28"/>
       <c r="BH28"/>
     </row>
-    <row r="29" spans="1:60">
+    <row r="29" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -19636,7 +19669,7 @@
       <c r="BG29"/>
       <c r="BH29"/>
     </row>
-    <row r="30" spans="1:60">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
@@ -19712,7 +19745,7 @@
       <c r="BG30"/>
       <c r="BH30"/>
     </row>
-    <row r="31" spans="1:60">
+    <row r="31" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
@@ -19788,7 +19821,7 @@
       <c r="BG31"/>
       <c r="BH31"/>
     </row>
-    <row r="32" spans="1:60">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
@@ -19866,7 +19899,7 @@
       <c r="BG32"/>
       <c r="BH32"/>
     </row>
-    <row r="33" spans="1:60">
+    <row r="33" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -19944,7 +19977,7 @@
       <c r="BG33"/>
       <c r="BH33"/>
     </row>
-    <row r="34" spans="1:60">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -20050,7 +20083,7 @@
       <c r="BG34"/>
       <c r="BH34"/>
     </row>
-    <row r="35" spans="1:60">
+    <row r="35" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -20144,7 +20177,7 @@
       <c r="BG35"/>
       <c r="BH35"/>
     </row>
-    <row r="36" spans="1:60">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>51</v>
       </c>
@@ -20226,7 +20259,7 @@
       <c r="BG36"/>
       <c r="BH36"/>
     </row>
-    <row r="37" spans="1:60">
+    <row r="37" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>51</v>
       </c>
@@ -20300,7 +20333,7 @@
       <c r="BG37"/>
       <c r="BH37"/>
     </row>
-    <row r="38" spans="1:60">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -20384,7 +20417,7 @@
       <c r="BG38"/>
       <c r="BH38"/>
     </row>
-    <row r="39" spans="1:60">
+    <row r="39" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -20476,7 +20509,7 @@
       <c r="BG39"/>
       <c r="BH39"/>
     </row>
-    <row r="40" spans="1:60">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>51</v>
       </c>
@@ -20554,7 +20587,7 @@
       <c r="BG40"/>
       <c r="BH40"/>
     </row>
-    <row r="41" spans="1:60">
+    <row r="41" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>51</v>
       </c>
@@ -20632,7 +20665,7 @@
       <c r="BG41"/>
       <c r="BH41"/>
     </row>
-    <row r="42" spans="1:60">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
@@ -20706,7 +20739,7 @@
       <c r="BG42"/>
       <c r="BH42"/>
     </row>
-    <row r="43" spans="1:60">
+    <row r="43" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -20790,7 +20823,7 @@
       <c r="BG43"/>
       <c r="BH43"/>
     </row>
-    <row r="44" spans="1:60">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
@@ -20868,7 +20901,7 @@
       <c r="BG44"/>
       <c r="BH44"/>
     </row>
-    <row r="45" spans="1:60">
+    <row r="45" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -20944,7 +20977,7 @@
       <c r="BG45"/>
       <c r="BH45"/>
     </row>
-    <row r="46" spans="1:60">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -21024,7 +21057,7 @@
       <c r="BG46"/>
       <c r="BH46"/>
     </row>
-    <row r="47" spans="1:60">
+    <row r="47" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>52</v>
       </c>
@@ -21112,7 +21145,7 @@
       <c r="BG47"/>
       <c r="BH47"/>
     </row>
-    <row r="48" spans="1:60">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -21194,7 +21227,7 @@
       <c r="BG48"/>
       <c r="BH48"/>
     </row>
-    <row r="49" spans="1:60">
+    <row r="49" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
@@ -21276,7 +21309,7 @@
       <c r="BG49"/>
       <c r="BH49"/>
     </row>
-    <row r="50" spans="1:60">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -21354,17 +21387,25 @@
         <v>4</v>
       </c>
       <c r="AY50"/>
-      <c r="AZ50" s="8"/>
-      <c r="BA50"/>
-      <c r="BB50"/>
-      <c r="BC50"/>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>6</v>
+      </c>
+      <c r="BB50">
+        <v>6</v>
+      </c>
+      <c r="BC50">
+        <v>6</v>
+      </c>
       <c r="BD50" s="8"/>
       <c r="BE50"/>
       <c r="BF50"/>
       <c r="BG50"/>
       <c r="BH50"/>
     </row>
-    <row r="51" spans="1:60">
+    <row r="51" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
@@ -21450,7 +21491,7 @@
       <c r="BG51"/>
       <c r="BH51"/>
     </row>
-    <row r="52" spans="1:60">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>52</v>
       </c>
@@ -21536,7 +21577,7 @@
       <c r="BG52"/>
       <c r="BH52"/>
     </row>
-    <row r="53" spans="1:60">
+    <row r="53" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>52</v>
       </c>
@@ -21624,7 +21665,7 @@
       <c r="BG53"/>
       <c r="BH53"/>
     </row>
-    <row r="54" spans="1:60">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -21705,14 +21746,16 @@
       <c r="AZ54"/>
       <c r="BA54"/>
       <c r="BB54"/>
-      <c r="BC54"/>
+      <c r="BC54">
+        <v>6</v>
+      </c>
       <c r="BD54" s="8"/>
       <c r="BE54"/>
       <c r="BF54"/>
       <c r="BG54"/>
       <c r="BH54"/>
     </row>
-    <row r="55" spans="1:60">
+    <row r="55" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
@@ -21800,7 +21843,7 @@
       <c r="BG55"/>
       <c r="BH55"/>
     </row>
-    <row r="56" spans="1:60">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
@@ -21892,7 +21935,7 @@
       <c r="BG56"/>
       <c r="BH56"/>
     </row>
-    <row r="57" spans="1:60">
+    <row r="57" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>52</v>
       </c>
@@ -21968,7 +22011,7 @@
       <c r="BG57"/>
       <c r="BH57"/>
     </row>
-    <row r="58" spans="1:60">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>52</v>
       </c>
@@ -22056,7 +22099,7 @@
       <c r="BG58"/>
       <c r="BH58"/>
     </row>
-    <row r="59" spans="1:60">
+    <row r="59" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>52</v>
       </c>
@@ -22138,7 +22181,7 @@
       <c r="BG59"/>
       <c r="BH59"/>
     </row>
-    <row r="60" spans="1:60">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>52</v>
       </c>
@@ -22220,7 +22263,7 @@
       <c r="BG60"/>
       <c r="BH60"/>
     </row>
-    <row r="61" spans="1:60">
+    <row r="61" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>52</v>
       </c>
@@ -22302,7 +22345,7 @@
       <c r="BG61"/>
       <c r="BH61"/>
     </row>
-    <row r="62" spans="1:60">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>52</v>
       </c>
@@ -22390,7 +22433,7 @@
       <c r="BG62"/>
       <c r="BH62"/>
     </row>
-    <row r="63" spans="1:60">
+    <row r="63" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>52</v>
       </c>
@@ -22480,7 +22523,7 @@
       <c r="BG63"/>
       <c r="BH63"/>
     </row>
-    <row r="64" spans="1:60">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>52</v>
       </c>
@@ -22568,7 +22611,7 @@
       <c r="BG64"/>
       <c r="BH64"/>
     </row>
-    <row r="65" spans="1:60">
+    <row r="65" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>52</v>
       </c>
@@ -22656,7 +22699,7 @@
       <c r="BG65"/>
       <c r="BH65"/>
     </row>
-    <row r="66" spans="1:60">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>52</v>
       </c>
@@ -22732,7 +22775,7 @@
       <c r="BG66"/>
       <c r="BH66"/>
     </row>
-    <row r="67" spans="1:60">
+    <row r="67" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>52</v>
       </c>
@@ -22820,7 +22863,7 @@
       <c r="BG67"/>
       <c r="BH67"/>
     </row>
-    <row r="68" spans="1:60">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>52</v>
       </c>
@@ -22908,7 +22951,7 @@
       <c r="BG68"/>
       <c r="BH68"/>
     </row>
-    <row r="69" spans="1:60">
+    <row r="69" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>52</v>
       </c>
@@ -22986,7 +23029,7 @@
       <c r="BG69"/>
       <c r="BH69"/>
     </row>
-    <row r="70" spans="1:60">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>52</v>
       </c>
@@ -23074,7 +23117,7 @@
       <c r="BG70"/>
       <c r="BH70"/>
     </row>
-    <row r="71" spans="1:60">
+    <row r="71" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>53</v>
       </c>
@@ -23158,7 +23201,7 @@
       <c r="BG71"/>
       <c r="BH71"/>
     </row>
-    <row r="72" spans="1:60">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>53</v>
       </c>
@@ -23252,7 +23295,7 @@
       <c r="BG72"/>
       <c r="BH72"/>
     </row>
-    <row r="73" spans="1:60">
+    <row r="73" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>53</v>
       </c>
@@ -23332,7 +23375,7 @@
       <c r="BG73"/>
       <c r="BH73"/>
     </row>
-    <row r="74" spans="1:60">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>53</v>
       </c>
@@ -23434,7 +23477,7 @@
       <c r="BG74"/>
       <c r="BH74"/>
     </row>
-    <row r="75" spans="1:60">
+    <row r="75" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>53</v>
       </c>
@@ -23518,7 +23561,7 @@
       <c r="BG75"/>
       <c r="BH75"/>
     </row>
-    <row r="76" spans="1:60">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>53</v>
       </c>
@@ -23618,7 +23661,7 @@
       <c r="BG76"/>
       <c r="BH76"/>
     </row>
-    <row r="77" spans="1:60">
+    <row r="77" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
@@ -23702,7 +23745,7 @@
       <c r="BG77"/>
       <c r="BH77"/>
     </row>
-    <row r="78" spans="1:60">
+    <row r="78" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>53</v>
       </c>
@@ -23804,7 +23847,7 @@
       <c r="BG78"/>
       <c r="BH78"/>
     </row>
-    <row r="79" spans="1:60">
+    <row r="79" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>53</v>
       </c>
@@ -23884,7 +23927,7 @@
       <c r="BG79"/>
       <c r="BH79"/>
     </row>
-    <row r="80" spans="1:60">
+    <row r="80" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>53</v>
       </c>
@@ -23986,7 +24029,7 @@
       <c r="BG80"/>
       <c r="BH80"/>
     </row>
-    <row r="81" spans="1:60">
+    <row r="81" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>53</v>
       </c>
@@ -24086,7 +24129,7 @@
       <c r="BG81"/>
       <c r="BH81"/>
     </row>
-    <row r="82" spans="1:60">
+    <row r="82" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>54</v>
       </c>
@@ -24164,7 +24207,7 @@
       <c r="BG82"/>
       <c r="BH82"/>
     </row>
-    <row r="83" spans="1:60">
+    <row r="83" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>54</v>
       </c>
@@ -24250,7 +24293,7 @@
       <c r="BG83"/>
       <c r="BH83"/>
     </row>
-    <row r="84" spans="1:60">
+    <row r="84" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>54</v>
       </c>
@@ -24334,7 +24377,7 @@
       <c r="BG84"/>
       <c r="BH84"/>
     </row>
-    <row r="85" spans="1:60">
+    <row r="85" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
@@ -24436,7 +24479,7 @@
       <c r="BG85"/>
       <c r="BH85"/>
     </row>
-    <row r="86" spans="1:60">
+    <row r="86" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>54</v>
       </c>
@@ -24516,7 +24559,7 @@
       <c r="BG86"/>
       <c r="BH86"/>
     </row>
-    <row r="87" spans="1:60">
+    <row r="87" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>54</v>
       </c>
@@ -24604,7 +24647,7 @@
       <c r="BG87"/>
       <c r="BH87"/>
     </row>
-    <row r="88" spans="1:60">
+    <row r="88" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>54</v>
       </c>
@@ -24682,7 +24725,7 @@
       <c r="BG88"/>
       <c r="BH88"/>
     </row>
-    <row r="89" spans="1:60">
+    <row r="89" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>54</v>
       </c>
@@ -24784,7 +24827,7 @@
       <c r="BG89"/>
       <c r="BH89"/>
     </row>
-    <row r="90" spans="1:60">
+    <row r="90" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>54</v>
       </c>
@@ -24886,7 +24929,7 @@
       <c r="BG90"/>
       <c r="BH90"/>
     </row>
-    <row r="91" spans="1:60">
+    <row r="91" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>54</v>
       </c>
@@ -24970,7 +25013,7 @@
       <c r="BG91"/>
       <c r="BH91"/>
     </row>
-    <row r="92" spans="1:60">
+    <row r="92" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>54</v>
       </c>
@@ -25074,7 +25117,7 @@
       <c r="BG92"/>
       <c r="BH92"/>
     </row>
-    <row r="93" spans="1:60">
+    <row r="93" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>54</v>
       </c>
@@ -25158,7 +25201,7 @@
       <c r="BG93"/>
       <c r="BH93"/>
     </row>
-    <row r="94" spans="1:60">
+    <row r="94" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>54</v>
       </c>
@@ -25246,7 +25289,7 @@
       <c r="BG94"/>
       <c r="BH94"/>
     </row>
-    <row r="95" spans="1:60">
+    <row r="95" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>54</v>
       </c>
@@ -25328,7 +25371,7 @@
       <c r="BG95"/>
       <c r="BH95"/>
     </row>
-    <row r="96" spans="1:60">
+    <row r="96" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>54</v>
       </c>
@@ -25410,7 +25453,7 @@
       <c r="BG96"/>
       <c r="BH96"/>
     </row>
-    <row r="97" spans="1:60">
+    <row r="97" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>55</v>
       </c>
@@ -25496,7 +25539,7 @@
       <c r="BG97"/>
       <c r="BH97"/>
     </row>
-    <row r="98" spans="1:60">
+    <row r="98" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>55</v>
       </c>
@@ -25570,7 +25613,7 @@
       <c r="BG98"/>
       <c r="BH98"/>
     </row>
-    <row r="99" spans="1:60">
+    <row r="99" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>55</v>
       </c>
@@ -25650,7 +25693,7 @@
       <c r="BG99"/>
       <c r="BH99"/>
     </row>
-    <row r="100" spans="1:60">
+    <row r="100" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>55</v>
       </c>
@@ -25746,7 +25789,7 @@
       <c r="BG100"/>
       <c r="BH100"/>
     </row>
-    <row r="101" spans="1:60">
+    <row r="101" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>55</v>
       </c>
@@ -25822,7 +25865,7 @@
       <c r="BG101"/>
       <c r="BH101"/>
     </row>
-    <row r="102" spans="1:60">
+    <row r="102" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>55</v>
       </c>
@@ -25906,7 +25949,7 @@
       <c r="BG102"/>
       <c r="BH102"/>
     </row>
-    <row r="103" spans="1:60">
+    <row r="103" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>55</v>
       </c>
@@ -25990,7 +26033,7 @@
       <c r="BG103"/>
       <c r="BH103"/>
     </row>
-    <row r="104" spans="1:60">
+    <row r="104" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>55</v>
       </c>
@@ -26072,7 +26115,7 @@
       <c r="BG104"/>
       <c r="BH104"/>
     </row>
-    <row r="105" spans="1:60">
+    <row r="105" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>55</v>
       </c>
@@ -26148,7 +26191,7 @@
       <c r="BG105"/>
       <c r="BH105"/>
     </row>
-    <row r="106" spans="1:60">
+    <row r="106" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>55</v>
       </c>
@@ -26230,7 +26273,7 @@
       <c r="BG106"/>
       <c r="BH106"/>
     </row>
-    <row r="107" spans="1:60">
+    <row r="107" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>55</v>
       </c>
@@ -26336,7 +26379,7 @@
       <c r="BG107"/>
       <c r="BH107"/>
     </row>
-    <row r="108" spans="1:60">
+    <row r="108" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>55</v>
       </c>
@@ -26414,7 +26457,7 @@
       <c r="BG108"/>
       <c r="BH108"/>
     </row>
-    <row r="109" spans="1:60">
+    <row r="109" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>55</v>
       </c>
@@ -26488,7 +26531,7 @@
       <c r="BG109"/>
       <c r="BH109"/>
     </row>
-    <row r="110" spans="1:60">
+    <row r="110" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>55</v>
       </c>
@@ -26568,7 +26611,7 @@
       <c r="BG110"/>
       <c r="BH110"/>
     </row>
-    <row r="111" spans="1:60">
+    <row r="111" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>55</v>
       </c>
@@ -26654,7 +26697,7 @@
       <c r="BG111"/>
       <c r="BH111"/>
     </row>
-    <row r="112" spans="1:60">
+    <row r="112" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>55</v>
       </c>
@@ -26728,7 +26771,7 @@
       <c r="BG112"/>
       <c r="BH112"/>
     </row>
-    <row r="113" spans="1:60">
+    <row r="113" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>55</v>
       </c>
@@ -26802,7 +26845,7 @@
       <c r="BG113"/>
       <c r="BH113"/>
     </row>
-    <row r="114" spans="1:60">
+    <row r="114" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>55</v>
       </c>
@@ -26882,7 +26925,7 @@
       <c r="BG114"/>
       <c r="BH114"/>
     </row>
-    <row r="115" spans="1:60">
+    <row r="115" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>55</v>
       </c>
@@ -26962,7 +27005,7 @@
       <c r="BG115"/>
       <c r="BH115"/>
     </row>
-    <row r="116" spans="1:60">
+    <row r="116" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>55</v>
       </c>
@@ -27036,7 +27079,7 @@
       <c r="BG116"/>
       <c r="BH116"/>
     </row>
-    <row r="117" spans="1:60">
+    <row r="117" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>55</v>
       </c>
@@ -27112,7 +27155,7 @@
       <c r="BG117"/>
       <c r="BH117"/>
     </row>
-    <row r="118" spans="1:60">
+    <row r="118" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>55</v>
       </c>
@@ -27218,7 +27261,7 @@
       <c r="BG118"/>
       <c r="BH118"/>
     </row>
-    <row r="119" spans="1:60">
+    <row r="119" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>55</v>
       </c>
@@ -27302,7 +27345,7 @@
       <c r="BG119"/>
       <c r="BH119"/>
     </row>
-    <row r="120" spans="1:60">
+    <row r="120" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>55</v>
       </c>
@@ -27384,7 +27427,7 @@
       <c r="BG120"/>
       <c r="BH120"/>
     </row>
-    <row r="121" spans="1:60">
+    <row r="121" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>55</v>
       </c>
@@ -27466,7 +27509,7 @@
       <c r="BG121"/>
       <c r="BH121"/>
     </row>
-    <row r="122" spans="1:60">
+    <row r="122" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>55</v>
       </c>
@@ -27572,7 +27615,7 @@
       <c r="BG122"/>
       <c r="BH122"/>
     </row>
-    <row r="123" spans="1:60">
+    <row r="123" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>56</v>
       </c>
@@ -27648,7 +27691,7 @@
       <c r="BG123"/>
       <c r="BH123"/>
     </row>
-    <row r="124" spans="1:60">
+    <row r="124" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>56</v>
       </c>
@@ -27726,7 +27769,7 @@
       <c r="BG124"/>
       <c r="BH124"/>
     </row>
-    <row r="125" spans="1:60">
+    <row r="125" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>56</v>
       </c>
@@ -27800,7 +27843,7 @@
       <c r="BG125"/>
       <c r="BH125"/>
     </row>
-    <row r="126" spans="1:60">
+    <row r="126" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>56</v>
       </c>
@@ -27878,7 +27921,7 @@
       <c r="BG126"/>
       <c r="BH126"/>
     </row>
-    <row r="127" spans="1:60">
+    <row r="127" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>56</v>
       </c>
@@ -27958,7 +28001,7 @@
       <c r="BG127"/>
       <c r="BH127"/>
     </row>
-    <row r="128" spans="1:60">
+    <row r="128" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>56</v>
       </c>
@@ -28036,7 +28079,7 @@
       <c r="BG128"/>
       <c r="BH128"/>
     </row>
-    <row r="129" spans="1:60">
+    <row r="129" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>56</v>
       </c>
@@ -28118,7 +28161,7 @@
       <c r="BG129"/>
       <c r="BH129"/>
     </row>
-    <row r="130" spans="1:60">
+    <row r="130" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>56</v>
       </c>
@@ -28200,7 +28243,7 @@
       <c r="BG130"/>
       <c r="BH130"/>
     </row>
-    <row r="131" spans="1:60">
+    <row r="131" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>56</v>
       </c>
@@ -28278,7 +28321,7 @@
       <c r="BG131"/>
       <c r="BH131"/>
     </row>
-    <row r="132" spans="1:60">
+    <row r="132" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
@@ -28356,7 +28399,7 @@
       <c r="BG132"/>
       <c r="BH132"/>
     </row>
-    <row r="133" spans="1:60">
+    <row r="133" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>56</v>
       </c>
@@ -28434,7 +28477,7 @@
       <c r="BG133"/>
       <c r="BH133"/>
     </row>
-    <row r="134" spans="1:60">
+    <row r="134" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>56</v>
       </c>
@@ -28508,7 +28551,7 @@
       <c r="BG134"/>
       <c r="BH134"/>
     </row>
-    <row r="135" spans="1:60">
+    <row r="135" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
@@ -28598,7 +28641,7 @@
       <c r="BG135"/>
       <c r="BH135"/>
     </row>
-    <row r="136" spans="1:60">
+    <row r="136" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>57</v>
       </c>
@@ -28704,7 +28747,7 @@
       <c r="BG136"/>
       <c r="BH136"/>
     </row>
-    <row r="137" spans="1:60">
+    <row r="137" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>57</v>
       </c>
@@ -28790,7 +28833,7 @@
       <c r="BG137"/>
       <c r="BH137"/>
     </row>
-    <row r="138" spans="1:60">
+    <row r="138" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>57</v>
       </c>
@@ -28870,7 +28913,7 @@
       <c r="BG138"/>
       <c r="BH138"/>
     </row>
-    <row r="139" spans="1:60">
+    <row r="139" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>57</v>
       </c>
@@ -28978,7 +29021,7 @@
       <c r="BG139"/>
       <c r="BH139"/>
     </row>
-    <row r="140" spans="1:60">
+    <row r="140" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>57</v>
       </c>
@@ -29122,7 +29165,7 @@
       <c r="BG140"/>
       <c r="BH140"/>
     </row>
-    <row r="141" spans="1:60">
+    <row r="141" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>57</v>
       </c>
@@ -29230,7 +29273,7 @@
       <c r="BG141"/>
       <c r="BH141"/>
     </row>
-    <row r="142" spans="1:60">
+    <row r="142" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>58</v>
       </c>
@@ -29338,7 +29381,7 @@
       <c r="BG142"/>
       <c r="BH142"/>
     </row>
-    <row r="143" spans="1:60">
+    <row r="143" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>58</v>
       </c>
@@ -29446,7 +29489,7 @@
       <c r="BG143"/>
       <c r="BH143"/>
     </row>
-    <row r="144" spans="1:60">
+    <row r="144" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>58</v>
       </c>
@@ -29524,7 +29567,7 @@
       <c r="BG144"/>
       <c r="BH144"/>
     </row>
-    <row r="145" spans="1:60">
+    <row r="145" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>58</v>
       </c>
@@ -29630,7 +29673,7 @@
       <c r="BG145"/>
       <c r="BH145"/>
     </row>
-    <row r="146" spans="1:60">
+    <row r="146" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>58</v>
       </c>
@@ -29730,7 +29773,7 @@
       <c r="BG146"/>
       <c r="BH146"/>
     </row>
-    <row r="147" spans="1:60">
+    <row r="147" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>58</v>
       </c>
@@ -29838,7 +29881,7 @@
       <c r="BG147"/>
       <c r="BH147"/>
     </row>
-    <row r="148" spans="1:60">
+    <row r="148" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>58</v>
       </c>
@@ -29944,7 +29987,7 @@
       <c r="BG148"/>
       <c r="BH148"/>
     </row>
-    <row r="149" spans="1:60">
+    <row r="149" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>58</v>
       </c>
@@ -30052,7 +30095,7 @@
       <c r="BG149"/>
       <c r="BH149"/>
     </row>
-    <row r="150" spans="1:60">
+    <row r="150" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>58</v>
       </c>
@@ -30158,7 +30201,7 @@
       <c r="BG150"/>
       <c r="BH150"/>
     </row>
-    <row r="151" spans="1:60">
+    <row r="151" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>58</v>
       </c>
@@ -30266,7 +30309,7 @@
       <c r="BG151"/>
       <c r="BH151"/>
     </row>
-    <row r="152" spans="1:60">
+    <row r="152" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>58</v>
       </c>
@@ -30372,7 +30415,7 @@
       <c r="BG152"/>
       <c r="BH152"/>
     </row>
-    <row r="153" spans="1:60">
+    <row r="153" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>58</v>
       </c>
@@ -30478,7 +30521,7 @@
       <c r="BG153"/>
       <c r="BH153"/>
     </row>
-    <row r="154" spans="1:60">
+    <row r="154" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>58</v>
       </c>
@@ -30584,7 +30627,7 @@
       <c r="BG154"/>
       <c r="BH154"/>
     </row>
-    <row r="155" spans="1:60">
+    <row r="155" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>58</v>
       </c>
@@ -30692,7 +30735,7 @@
       <c r="BG155"/>
       <c r="BH155"/>
     </row>
-    <row r="156" spans="1:60">
+    <row r="156" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>58</v>
       </c>
@@ -30798,7 +30841,7 @@
       <c r="BG156"/>
       <c r="BH156"/>
     </row>
-    <row r="157" spans="1:60">
+    <row r="157" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>58</v>
       </c>
@@ -30904,7 +30947,7 @@
       <c r="BG157"/>
       <c r="BH157"/>
     </row>
-    <row r="158" spans="1:60">
+    <row r="158" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>58</v>
       </c>
@@ -31010,7 +31053,7 @@
       <c r="BG158"/>
       <c r="BH158"/>
     </row>
-    <row r="159" spans="1:60">
+    <row r="159" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>58</v>
       </c>
@@ -31120,7 +31163,7 @@
       <c r="BG159"/>
       <c r="BH159"/>
     </row>
-    <row r="160" spans="1:60">
+    <row r="160" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>58</v>
       </c>
@@ -31228,7 +31271,7 @@
       <c r="BG160"/>
       <c r="BH160"/>
     </row>
-    <row r="161" spans="1:60">
+    <row r="161" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>58</v>
       </c>
@@ -31336,7 +31379,7 @@
       <c r="BG161"/>
       <c r="BH161"/>
     </row>
-    <row r="162" spans="1:60">
+    <row r="162" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>58</v>
       </c>
@@ -31436,7 +31479,7 @@
       <c r="BG162"/>
       <c r="BH162"/>
     </row>
-    <row r="163" spans="1:60">
+    <row r="163" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>58</v>
       </c>
@@ -31544,7 +31587,7 @@
       <c r="BG163"/>
       <c r="BH163"/>
     </row>
-    <row r="164" spans="1:60">
+    <row r="164" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>58</v>
       </c>
@@ -31622,7 +31665,7 @@
       <c r="BG164"/>
       <c r="BH164"/>
     </row>
-    <row r="165" spans="1:60">
+    <row r="165" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>58</v>
       </c>
@@ -31730,7 +31773,7 @@
       <c r="BG165"/>
       <c r="BH165"/>
     </row>
-    <row r="166" spans="1:60">
+    <row r="166" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>58</v>
       </c>
@@ -31838,7 +31881,7 @@
       <c r="BG166"/>
       <c r="BH166"/>
     </row>
-    <row r="167" spans="1:60">
+    <row r="167" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>58</v>
       </c>
@@ -31942,7 +31985,7 @@
       <c r="BG167"/>
       <c r="BH167"/>
     </row>
-    <row r="168" spans="1:60">
+    <row r="168" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>58</v>
       </c>
@@ -32026,7 +32069,7 @@
       <c r="BG168"/>
       <c r="BH168"/>
     </row>
-    <row r="169" spans="1:60">
+    <row r="169" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>58</v>
       </c>
@@ -32134,7 +32177,7 @@
       <c r="BG169"/>
       <c r="BH169"/>
     </row>
-    <row r="170" spans="1:60">
+    <row r="170" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -32191,7 +32234,7 @@
       <c r="BB170"/>
       <c r="BC170"/>
     </row>
-    <row r="171" spans="1:60">
+    <row r="171" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -32248,7 +32291,7 @@
       <c r="BB171"/>
       <c r="BC171"/>
     </row>
-    <row r="172" spans="1:60">
+    <row r="172" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -32305,7 +32348,7 @@
       <c r="BB172"/>
       <c r="BC172"/>
     </row>
-    <row r="173" spans="1:60">
+    <row r="173" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -32362,7 +32405,7 @@
       <c r="BB173"/>
       <c r="BC173"/>
     </row>
-    <row r="174" spans="1:60">
+    <row r="174" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -32419,7 +32462,7 @@
       <c r="BB174"/>
       <c r="BC174"/>
     </row>
-    <row r="175" spans="1:60">
+    <row r="175" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -32476,7 +32519,7 @@
       <c r="BB175"/>
       <c r="BC175"/>
     </row>
-    <row r="176" spans="1:60">
+    <row r="176" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -32533,7 +32576,7 @@
       <c r="BB176"/>
       <c r="BC176"/>
     </row>
-    <row r="177" spans="1:55">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -32601,17 +32644,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BH177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.83203125" style="3" collapsed="1"/>
@@ -32622,7 +32665,7 @@
     <col min="57" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="4" customFormat="1">
+    <row r="1" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32794,7 +32837,7 @@
       <c r="BG1" s="10"/>
       <c r="BH1" s="10"/>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -32859,7 +32902,7 @@
       <c r="BB2"/>
       <c r="BC2"/>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -32924,7 +32967,7 @@
       <c r="BB3"/>
       <c r="BC3"/>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -32989,7 +33032,7 @@
       <c r="BB4"/>
       <c r="BC4"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -33054,7 +33097,7 @@
       <c r="BB5"/>
       <c r="BC5"/>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -33119,7 +33162,7 @@
       <c r="BB6"/>
       <c r="BC6"/>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -33184,7 +33227,7 @@
       <c r="BB7"/>
       <c r="BC7"/>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -33249,7 +33292,7 @@
       <c r="BB8"/>
       <c r="BC8"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -33314,7 +33357,7 @@
       <c r="BB9"/>
       <c r="BC9"/>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -33379,7 +33422,7 @@
       <c r="BB10"/>
       <c r="BC10"/>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -33444,7 +33487,7 @@
       <c r="BB11"/>
       <c r="BC11"/>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -33509,7 +33552,7 @@
       <c r="BB12"/>
       <c r="BC12"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -33574,7 +33617,7 @@
       <c r="BB13"/>
       <c r="BC13"/>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -33639,7 +33682,7 @@
       <c r="BB14"/>
       <c r="BC14"/>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -33704,7 +33747,7 @@
       <c r="BB15"/>
       <c r="BC15"/>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -33769,7 +33812,7 @@
       <c r="BB16"/>
       <c r="BC16"/>
     </row>
-    <row r="17" spans="1:55">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -33834,7 +33877,7 @@
       <c r="BB17"/>
       <c r="BC17"/>
     </row>
-    <row r="18" spans="1:55">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -33899,7 +33942,7 @@
       <c r="BB18"/>
       <c r="BC18"/>
     </row>
-    <row r="19" spans="1:55">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -33964,7 +34007,7 @@
       <c r="BB19"/>
       <c r="BC19"/>
     </row>
-    <row r="20" spans="1:55">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -34029,7 +34072,7 @@
       <c r="BB20"/>
       <c r="BC20"/>
     </row>
-    <row r="21" spans="1:55">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -34094,7 +34137,7 @@
       <c r="BB21"/>
       <c r="BC21"/>
     </row>
-    <row r="22" spans="1:55">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -34159,7 +34202,7 @@
       <c r="BB22"/>
       <c r="BC22"/>
     </row>
-    <row r="23" spans="1:55">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -34224,7 +34267,7 @@
       <c r="BB23"/>
       <c r="BC23"/>
     </row>
-    <row r="24" spans="1:55">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -34289,7 +34332,7 @@
       <c r="BB24"/>
       <c r="BC24"/>
     </row>
-    <row r="25" spans="1:55">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -34354,7 +34397,7 @@
       <c r="BB25"/>
       <c r="BC25"/>
     </row>
-    <row r="26" spans="1:55">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -34419,7 +34462,7 @@
       <c r="BB26"/>
       <c r="BC26"/>
     </row>
-    <row r="27" spans="1:55">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -34484,7 +34527,7 @@
       <c r="BB27"/>
       <c r="BC27"/>
     </row>
-    <row r="28" spans="1:55">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -34549,7 +34592,7 @@
       <c r="BB28"/>
       <c r="BC28"/>
     </row>
-    <row r="29" spans="1:55">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -34614,7 +34657,7 @@
       <c r="BB29"/>
       <c r="BC29"/>
     </row>
-    <row r="30" spans="1:55">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -34679,7 +34722,7 @@
       <c r="BB30"/>
       <c r="BC30"/>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -34744,7 +34787,7 @@
       <c r="BB31"/>
       <c r="BC31"/>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -34809,7 +34852,7 @@
       <c r="BB32"/>
       <c r="BC32"/>
     </row>
-    <row r="33" spans="1:55">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -34874,7 +34917,7 @@
       <c r="BB33"/>
       <c r="BC33"/>
     </row>
-    <row r="34" spans="1:55">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -34939,7 +34982,7 @@
       <c r="BB34"/>
       <c r="BC34"/>
     </row>
-    <row r="35" spans="1:55">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -35004,7 +35047,7 @@
       <c r="BB35"/>
       <c r="BC35"/>
     </row>
-    <row r="36" spans="1:55">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -35069,7 +35112,7 @@
       <c r="BB36"/>
       <c r="BC36"/>
     </row>
-    <row r="37" spans="1:55">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -35134,7 +35177,7 @@
       <c r="BB37"/>
       <c r="BC37"/>
     </row>
-    <row r="38" spans="1:55">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -35199,7 +35242,7 @@
       <c r="BB38"/>
       <c r="BC38"/>
     </row>
-    <row r="39" spans="1:55">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -35264,7 +35307,7 @@
       <c r="BB39"/>
       <c r="BC39"/>
     </row>
-    <row r="40" spans="1:55">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -35329,7 +35372,7 @@
       <c r="BB40"/>
       <c r="BC40"/>
     </row>
-    <row r="41" spans="1:55">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -35394,7 +35437,7 @@
       <c r="BB41"/>
       <c r="BC41"/>
     </row>
-    <row r="42" spans="1:55">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -35459,7 +35502,7 @@
       <c r="BB42"/>
       <c r="BC42"/>
     </row>
-    <row r="43" spans="1:55">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -35524,7 +35567,7 @@
       <c r="BB43"/>
       <c r="BC43"/>
     </row>
-    <row r="44" spans="1:55">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -35589,7 +35632,7 @@
       <c r="BB44"/>
       <c r="BC44"/>
     </row>
-    <row r="45" spans="1:55">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -35654,7 +35697,7 @@
       <c r="BB45"/>
       <c r="BC45"/>
     </row>
-    <row r="46" spans="1:55">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -35719,7 +35762,7 @@
       <c r="BB46"/>
       <c r="BC46"/>
     </row>
-    <row r="47" spans="1:55">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -35784,7 +35827,7 @@
       <c r="BB47"/>
       <c r="BC47"/>
     </row>
-    <row r="48" spans="1:55">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -35849,7 +35892,7 @@
       <c r="BB48"/>
       <c r="BC48"/>
     </row>
-    <row r="49" spans="1:55">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -35914,7 +35957,7 @@
       <c r="BB49"/>
       <c r="BC49"/>
     </row>
-    <row r="50" spans="1:55">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -35979,7 +36022,7 @@
       <c r="BB50"/>
       <c r="BC50"/>
     </row>
-    <row r="51" spans="1:55">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -36044,7 +36087,7 @@
       <c r="BB51"/>
       <c r="BC51"/>
     </row>
-    <row r="52" spans="1:55">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -36109,7 +36152,7 @@
       <c r="BB52"/>
       <c r="BC52"/>
     </row>
-    <row r="53" spans="1:55">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -36174,7 +36217,7 @@
       <c r="BB53"/>
       <c r="BC53"/>
     </row>
-    <row r="54" spans="1:55">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -36239,7 +36282,7 @@
       <c r="BB54"/>
       <c r="BC54"/>
     </row>
-    <row r="55" spans="1:55">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -36304,7 +36347,7 @@
       <c r="BB55"/>
       <c r="BC55"/>
     </row>
-    <row r="56" spans="1:55">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -36369,7 +36412,7 @@
       <c r="BB56"/>
       <c r="BC56"/>
     </row>
-    <row r="57" spans="1:55">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>52</v>
       </c>
@@ -36434,7 +36477,7 @@
       <c r="BB57"/>
       <c r="BC57"/>
     </row>
-    <row r="58" spans="1:55">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>52</v>
       </c>
@@ -36499,7 +36542,7 @@
       <c r="BB58"/>
       <c r="BC58"/>
     </row>
-    <row r="59" spans="1:55">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -36564,7 +36607,7 @@
       <c r="BB59"/>
       <c r="BC59"/>
     </row>
-    <row r="60" spans="1:55">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -36629,7 +36672,7 @@
       <c r="BB60"/>
       <c r="BC60"/>
     </row>
-    <row r="61" spans="1:55">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
@@ -36694,7 +36737,7 @@
       <c r="BB61"/>
       <c r="BC61"/>
     </row>
-    <row r="62" spans="1:55">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>52</v>
       </c>
@@ -36759,7 +36802,7 @@
       <c r="BB62"/>
       <c r="BC62"/>
     </row>
-    <row r="63" spans="1:55">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -36824,7 +36867,7 @@
       <c r="BB63"/>
       <c r="BC63"/>
     </row>
-    <row r="64" spans="1:55">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -36889,7 +36932,7 @@
       <c r="BB64"/>
       <c r="BC64"/>
     </row>
-    <row r="65" spans="1:55">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -36954,7 +36997,7 @@
       <c r="BB65"/>
       <c r="BC65"/>
     </row>
-    <row r="66" spans="1:55">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -37019,7 +37062,7 @@
       <c r="BB66"/>
       <c r="BC66"/>
     </row>
-    <row r="67" spans="1:55">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>52</v>
       </c>
@@ -37084,7 +37127,7 @@
       <c r="BB67"/>
       <c r="BC67"/>
     </row>
-    <row r="68" spans="1:55">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -37149,7 +37192,7 @@
       <c r="BB68"/>
       <c r="BC68"/>
     </row>
-    <row r="69" spans="1:55">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -37214,7 +37257,7 @@
       <c r="BB69"/>
       <c r="BC69"/>
     </row>
-    <row r="70" spans="1:55">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -37279,7 +37322,7 @@
       <c r="BB70"/>
       <c r="BC70"/>
     </row>
-    <row r="71" spans="1:55">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -37344,7 +37387,7 @@
       <c r="BB71"/>
       <c r="BC71"/>
     </row>
-    <row r="72" spans="1:55">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -37409,7 +37452,7 @@
       <c r="BB72"/>
       <c r="BC72"/>
     </row>
-    <row r="73" spans="1:55">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -37474,7 +37517,7 @@
       <c r="BB73"/>
       <c r="BC73"/>
     </row>
-    <row r="74" spans="1:55">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -37539,7 +37582,7 @@
       <c r="BB74"/>
       <c r="BC74"/>
     </row>
-    <row r="75" spans="1:55">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -37604,7 +37647,7 @@
       <c r="BB75"/>
       <c r="BC75"/>
     </row>
-    <row r="76" spans="1:55">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -37669,7 +37712,7 @@
       <c r="BB76"/>
       <c r="BC76"/>
     </row>
-    <row r="77" spans="1:55">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -37734,7 +37777,7 @@
       <c r="BB77"/>
       <c r="BC77"/>
     </row>
-    <row r="78" spans="1:55">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -37799,7 +37842,7 @@
       <c r="BB78"/>
       <c r="BC78"/>
     </row>
-    <row r="79" spans="1:55">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -37864,7 +37907,7 @@
       <c r="BB79"/>
       <c r="BC79"/>
     </row>
-    <row r="80" spans="1:55">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -37929,7 +37972,7 @@
       <c r="BB80"/>
       <c r="BC80"/>
     </row>
-    <row r="81" spans="1:55">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>53</v>
       </c>
@@ -37994,7 +38037,7 @@
       <c r="BB81"/>
       <c r="BC81"/>
     </row>
-    <row r="82" spans="1:55">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -38059,7 +38102,7 @@
       <c r="BB82"/>
       <c r="BC82"/>
     </row>
-    <row r="83" spans="1:55">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>54</v>
       </c>
@@ -38124,7 +38167,7 @@
       <c r="BB83"/>
       <c r="BC83"/>
     </row>
-    <row r="84" spans="1:55">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>54</v>
       </c>
@@ -38189,7 +38232,7 @@
       <c r="BB84"/>
       <c r="BC84"/>
     </row>
-    <row r="85" spans="1:55">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>54</v>
       </c>
@@ -38254,7 +38297,7 @@
       <c r="BB85"/>
       <c r="BC85"/>
     </row>
-    <row r="86" spans="1:55">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -38319,7 +38362,7 @@
       <c r="BB86"/>
       <c r="BC86"/>
     </row>
-    <row r="87" spans="1:55">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>54</v>
       </c>
@@ -38384,7 +38427,7 @@
       <c r="BB87"/>
       <c r="BC87"/>
     </row>
-    <row r="88" spans="1:55">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>54</v>
       </c>
@@ -38449,7 +38492,7 @@
       <c r="BB88"/>
       <c r="BC88"/>
     </row>
-    <row r="89" spans="1:55">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>54</v>
       </c>
@@ -38514,7 +38557,7 @@
       <c r="BB89"/>
       <c r="BC89"/>
     </row>
-    <row r="90" spans="1:55">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>54</v>
       </c>
@@ -38579,7 +38622,7 @@
       <c r="BB90"/>
       <c r="BC90"/>
     </row>
-    <row r="91" spans="1:55">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>54</v>
       </c>
@@ -38644,7 +38687,7 @@
       <c r="BB91"/>
       <c r="BC91"/>
     </row>
-    <row r="92" spans="1:55">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>54</v>
       </c>
@@ -38709,7 +38752,7 @@
       <c r="BB92"/>
       <c r="BC92"/>
     </row>
-    <row r="93" spans="1:55">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>54</v>
       </c>
@@ -38774,7 +38817,7 @@
       <c r="BB93"/>
       <c r="BC93"/>
     </row>
-    <row r="94" spans="1:55">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -38839,7 +38882,7 @@
       <c r="BB94"/>
       <c r="BC94"/>
     </row>
-    <row r="95" spans="1:55">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>54</v>
       </c>
@@ -38904,7 +38947,7 @@
       <c r="BB95"/>
       <c r="BC95"/>
     </row>
-    <row r="96" spans="1:55">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>54</v>
       </c>
@@ -38969,7 +39012,7 @@
       <c r="BB96"/>
       <c r="BC96"/>
     </row>
-    <row r="97" spans="1:55">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>55</v>
       </c>
@@ -39034,7 +39077,7 @@
       <c r="BB97"/>
       <c r="BC97"/>
     </row>
-    <row r="98" spans="1:55">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>55</v>
       </c>
@@ -39099,7 +39142,7 @@
       <c r="BB98"/>
       <c r="BC98"/>
     </row>
-    <row r="99" spans="1:55">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>55</v>
       </c>
@@ -39164,7 +39207,7 @@
       <c r="BB99"/>
       <c r="BC99"/>
     </row>
-    <row r="100" spans="1:55">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>55</v>
       </c>
@@ -39229,7 +39272,7 @@
       <c r="BB100"/>
       <c r="BC100"/>
     </row>
-    <row r="101" spans="1:55">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -39294,7 +39337,7 @@
       <c r="BB101"/>
       <c r="BC101"/>
     </row>
-    <row r="102" spans="1:55">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>55</v>
       </c>
@@ -39359,7 +39402,7 @@
       <c r="BB102"/>
       <c r="BC102"/>
     </row>
-    <row r="103" spans="1:55">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>55</v>
       </c>
@@ -39424,7 +39467,7 @@
       <c r="BB103"/>
       <c r="BC103"/>
     </row>
-    <row r="104" spans="1:55">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>55</v>
       </c>
@@ -39489,7 +39532,7 @@
       <c r="BB104"/>
       <c r="BC104"/>
     </row>
-    <row r="105" spans="1:55">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -39554,7 +39597,7 @@
       <c r="BB105"/>
       <c r="BC105"/>
     </row>
-    <row r="106" spans="1:55">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>55</v>
       </c>
@@ -39619,7 +39662,7 @@
       <c r="BB106"/>
       <c r="BC106"/>
     </row>
-    <row r="107" spans="1:55">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>55</v>
       </c>
@@ -39684,7 +39727,7 @@
       <c r="BB107"/>
       <c r="BC107"/>
     </row>
-    <row r="108" spans="1:55">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>55</v>
       </c>
@@ -39749,7 +39792,7 @@
       <c r="BB108"/>
       <c r="BC108"/>
     </row>
-    <row r="109" spans="1:55">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>55</v>
       </c>
@@ -39814,7 +39857,7 @@
       <c r="BB109"/>
       <c r="BC109"/>
     </row>
-    <row r="110" spans="1:55">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>55</v>
       </c>
@@ -39879,7 +39922,7 @@
       <c r="BB110"/>
       <c r="BC110"/>
     </row>
-    <row r="111" spans="1:55">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>55</v>
       </c>
@@ -39944,7 +39987,7 @@
       <c r="BB111"/>
       <c r="BC111"/>
     </row>
-    <row r="112" spans="1:55">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -40009,7 +40052,7 @@
       <c r="BB112"/>
       <c r="BC112"/>
     </row>
-    <row r="113" spans="1:55">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>55</v>
       </c>
@@ -40074,7 +40117,7 @@
       <c r="BB113"/>
       <c r="BC113"/>
     </row>
-    <row r="114" spans="1:55">
+    <row r="114" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>55</v>
       </c>
@@ -40139,7 +40182,7 @@
       <c r="BB114"/>
       <c r="BC114"/>
     </row>
-    <row r="115" spans="1:55">
+    <row r="115" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>55</v>
       </c>
@@ -40204,7 +40247,7 @@
       <c r="BB115"/>
       <c r="BC115"/>
     </row>
-    <row r="116" spans="1:55">
+    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>55</v>
       </c>
@@ -40269,7 +40312,7 @@
       <c r="BB116"/>
       <c r="BC116"/>
     </row>
-    <row r="117" spans="1:55">
+    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>55</v>
       </c>
@@ -40334,7 +40377,7 @@
       <c r="BB117"/>
       <c r="BC117"/>
     </row>
-    <row r="118" spans="1:55">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>55</v>
       </c>
@@ -40399,7 +40442,7 @@
       <c r="BB118"/>
       <c r="BC118"/>
     </row>
-    <row r="119" spans="1:55">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>55</v>
       </c>
@@ -40464,7 +40507,7 @@
       <c r="BB119"/>
       <c r="BC119"/>
     </row>
-    <row r="120" spans="1:55">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>55</v>
       </c>
@@ -40529,7 +40572,7 @@
       <c r="BB120"/>
       <c r="BC120"/>
     </row>
-    <row r="121" spans="1:55">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>55</v>
       </c>
@@ -40594,7 +40637,7 @@
       <c r="BB121"/>
       <c r="BC121"/>
     </row>
-    <row r="122" spans="1:55">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>55</v>
       </c>
@@ -40659,7 +40702,7 @@
       <c r="BB122"/>
       <c r="BC122"/>
     </row>
-    <row r="123" spans="1:55">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>56</v>
       </c>
@@ -40724,7 +40767,7 @@
       <c r="BB123"/>
       <c r="BC123"/>
     </row>
-    <row r="124" spans="1:55">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>56</v>
       </c>
@@ -40789,7 +40832,7 @@
       <c r="BB124"/>
       <c r="BC124"/>
     </row>
-    <row r="125" spans="1:55">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>56</v>
       </c>
@@ -40854,7 +40897,7 @@
       <c r="BB125"/>
       <c r="BC125"/>
     </row>
-    <row r="126" spans="1:55">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>56</v>
       </c>
@@ -40919,7 +40962,7 @@
       <c r="BB126"/>
       <c r="BC126"/>
     </row>
-    <row r="127" spans="1:55">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>56</v>
       </c>
@@ -40984,7 +41027,7 @@
       <c r="BB127"/>
       <c r="BC127"/>
     </row>
-    <row r="128" spans="1:55">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>56</v>
       </c>
@@ -41049,7 +41092,7 @@
       <c r="BB128"/>
       <c r="BC128"/>
     </row>
-    <row r="129" spans="1:55">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -41114,7 +41157,7 @@
       <c r="BB129"/>
       <c r="BC129"/>
     </row>
-    <row r="130" spans="1:55">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>56</v>
       </c>
@@ -41179,7 +41222,7 @@
       <c r="BB130"/>
       <c r="BC130"/>
     </row>
-    <row r="131" spans="1:55">
+    <row r="131" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>56</v>
       </c>
@@ -41244,7 +41287,7 @@
       <c r="BB131"/>
       <c r="BC131"/>
     </row>
-    <row r="132" spans="1:55">
+    <row r="132" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>56</v>
       </c>
@@ -41309,7 +41352,7 @@
       <c r="BB132"/>
       <c r="BC132"/>
     </row>
-    <row r="133" spans="1:55">
+    <row r="133" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>56</v>
       </c>
@@ -41374,7 +41417,7 @@
       <c r="BB133"/>
       <c r="BC133"/>
     </row>
-    <row r="134" spans="1:55">
+    <row r="134" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>56</v>
       </c>
@@ -41439,7 +41482,7 @@
       <c r="BB134"/>
       <c r="BC134"/>
     </row>
-    <row r="135" spans="1:55">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>57</v>
       </c>
@@ -41504,7 +41547,7 @@
       <c r="BB135"/>
       <c r="BC135"/>
     </row>
-    <row r="136" spans="1:55">
+    <row r="136" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>57</v>
       </c>
@@ -41569,7 +41612,7 @@
       <c r="BB136"/>
       <c r="BC136"/>
     </row>
-    <row r="137" spans="1:55">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>57</v>
       </c>
@@ -41634,7 +41677,7 @@
       <c r="BB137"/>
       <c r="BC137"/>
     </row>
-    <row r="138" spans="1:55">
+    <row r="138" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>57</v>
       </c>
@@ -41699,7 +41742,7 @@
       <c r="BB138"/>
       <c r="BC138"/>
     </row>
-    <row r="139" spans="1:55">
+    <row r="139" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>57</v>
       </c>
@@ -41764,7 +41807,7 @@
       <c r="BB139"/>
       <c r="BC139"/>
     </row>
-    <row r="140" spans="1:55">
+    <row r="140" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>57</v>
       </c>
@@ -41831,7 +41874,7 @@
       <c r="BB140"/>
       <c r="BC140"/>
     </row>
-    <row r="141" spans="1:55">
+    <row r="141" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>57</v>
       </c>
@@ -41896,7 +41939,7 @@
       <c r="BB141"/>
       <c r="BC141"/>
     </row>
-    <row r="142" spans="1:55">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>58</v>
       </c>
@@ -41961,7 +42004,7 @@
       <c r="BB142"/>
       <c r="BC142"/>
     </row>
-    <row r="143" spans="1:55">
+    <row r="143" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>58</v>
       </c>
@@ -42026,7 +42069,7 @@
       <c r="BB143"/>
       <c r="BC143"/>
     </row>
-    <row r="144" spans="1:55">
+    <row r="144" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>58</v>
       </c>
@@ -42091,7 +42134,7 @@
       <c r="BB144"/>
       <c r="BC144"/>
     </row>
-    <row r="145" spans="1:55">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>58</v>
       </c>
@@ -42156,7 +42199,7 @@
       <c r="BB145"/>
       <c r="BC145"/>
     </row>
-    <row r="146" spans="1:55">
+    <row r="146" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>58</v>
       </c>
@@ -42221,7 +42264,7 @@
       <c r="BB146"/>
       <c r="BC146"/>
     </row>
-    <row r="147" spans="1:55">
+    <row r="147" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>58</v>
       </c>
@@ -42286,7 +42329,7 @@
       <c r="BB147"/>
       <c r="BC147"/>
     </row>
-    <row r="148" spans="1:55">
+    <row r="148" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>58</v>
       </c>
@@ -42351,7 +42394,7 @@
       <c r="BB148"/>
       <c r="BC148"/>
     </row>
-    <row r="149" spans="1:55">
+    <row r="149" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>58</v>
       </c>
@@ -42416,7 +42459,7 @@
       <c r="BB149"/>
       <c r="BC149"/>
     </row>
-    <row r="150" spans="1:55">
+    <row r="150" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>58</v>
       </c>
@@ -42481,7 +42524,7 @@
       <c r="BB150"/>
       <c r="BC150"/>
     </row>
-    <row r="151" spans="1:55">
+    <row r="151" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>58</v>
       </c>
@@ -42546,7 +42589,7 @@
       <c r="BB151"/>
       <c r="BC151"/>
     </row>
-    <row r="152" spans="1:55">
+    <row r="152" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>58</v>
       </c>
@@ -42611,7 +42654,7 @@
       <c r="BB152"/>
       <c r="BC152"/>
     </row>
-    <row r="153" spans="1:55">
+    <row r="153" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>58</v>
       </c>
@@ -42676,7 +42719,7 @@
       <c r="BB153"/>
       <c r="BC153"/>
     </row>
-    <row r="154" spans="1:55">
+    <row r="154" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>58</v>
       </c>
@@ -42741,7 +42784,7 @@
       <c r="BB154"/>
       <c r="BC154"/>
     </row>
-    <row r="155" spans="1:55">
+    <row r="155" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>58</v>
       </c>
@@ -42806,7 +42849,7 @@
       <c r="BB155"/>
       <c r="BC155"/>
     </row>
-    <row r="156" spans="1:55">
+    <row r="156" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -42871,7 +42914,7 @@
       <c r="BB156"/>
       <c r="BC156"/>
     </row>
-    <row r="157" spans="1:55">
+    <row r="157" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>58</v>
       </c>
@@ -42936,7 +42979,7 @@
       <c r="BB157"/>
       <c r="BC157"/>
     </row>
-    <row r="158" spans="1:55">
+    <row r="158" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>58</v>
       </c>
@@ -43001,7 +43044,7 @@
       <c r="BB158"/>
       <c r="BC158"/>
     </row>
-    <row r="159" spans="1:55">
+    <row r="159" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>58</v>
       </c>
@@ -43066,7 +43109,7 @@
       <c r="BB159"/>
       <c r="BC159"/>
     </row>
-    <row r="160" spans="1:55">
+    <row r="160" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -43131,7 +43174,7 @@
       <c r="BB160"/>
       <c r="BC160"/>
     </row>
-    <row r="161" spans="1:55">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>58</v>
       </c>
@@ -43196,7 +43239,7 @@
       <c r="BB161"/>
       <c r="BC161"/>
     </row>
-    <row r="162" spans="1:55">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>58</v>
       </c>
@@ -43261,7 +43304,7 @@
       <c r="BB162"/>
       <c r="BC162"/>
     </row>
-    <row r="163" spans="1:55">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>58</v>
       </c>
@@ -43326,7 +43369,7 @@
       <c r="BB163"/>
       <c r="BC163"/>
     </row>
-    <row r="164" spans="1:55">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>58</v>
       </c>
@@ -43391,7 +43434,7 @@
       <c r="BB164"/>
       <c r="BC164"/>
     </row>
-    <row r="165" spans="1:55">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>58</v>
       </c>
@@ -43456,7 +43499,7 @@
       <c r="BB165"/>
       <c r="BC165"/>
     </row>
-    <row r="166" spans="1:55">
+    <row r="166" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>58</v>
       </c>
@@ -43521,7 +43564,7 @@
       <c r="BB166"/>
       <c r="BC166"/>
     </row>
-    <row r="167" spans="1:55">
+    <row r="167" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>58</v>
       </c>
@@ -43586,7 +43629,7 @@
       <c r="BB167"/>
       <c r="BC167"/>
     </row>
-    <row r="168" spans="1:55">
+    <row r="168" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>58</v>
       </c>
@@ -43651,7 +43694,7 @@
       <c r="BB168"/>
       <c r="BC168"/>
     </row>
-    <row r="169" spans="1:55">
+    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -43716,7 +43759,7 @@
       <c r="BB169"/>
       <c r="BC169"/>
     </row>
-    <row r="170" spans="1:55">
+    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -43773,7 +43816,7 @@
       <c r="BB170"/>
       <c r="BC170"/>
     </row>
-    <row r="171" spans="1:55">
+    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -43830,7 +43873,7 @@
       <c r="BB171"/>
       <c r="BC171"/>
     </row>
-    <row r="172" spans="1:55">
+    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -43887,7 +43930,7 @@
       <c r="BB172"/>
       <c r="BC172"/>
     </row>
-    <row r="173" spans="1:55">
+    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -43944,7 +43987,7 @@
       <c r="BB173"/>
       <c r="BC173"/>
     </row>
-    <row r="174" spans="1:55">
+    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -44001,7 +44044,7 @@
       <c r="BB174"/>
       <c r="BC174"/>
     </row>
-    <row r="175" spans="1:55">
+    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -44058,7 +44101,7 @@
       <c r="BB175"/>
       <c r="BC175"/>
     </row>
-    <row r="176" spans="1:55">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -44115,7 +44158,7 @@
       <c r="BB176"/>
       <c r="BC176"/>
     </row>
-    <row r="177" spans="1:55">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -44184,19 +44227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="14" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>399</v>
       </c>
@@ -44210,7 +44253,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -44224,7 +44267,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -44238,7 +44281,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -44252,7 +44295,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -44266,7 +44309,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -44280,7 +44323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -44294,7 +44337,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -44308,7 +44351,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -44322,7 +44365,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>5</v>
       </c>
@@ -44336,7 +44379,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -44350,7 +44393,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>5</v>
       </c>
@@ -44364,7 +44407,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>5</v>
       </c>
@@ -44378,7 +44421,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>5</v>
       </c>
@@ -44392,7 +44435,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -44406,11 +44449,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C16">
@@ -44420,19 +44463,19 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
